--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,15 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12312312</v>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
@@ -471,8 +473,10 @@
           <t>2025-04-05</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>12312312</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -483,17 +487,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>박진우</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
@@ -503,8 +507,10 @@
           <t>2025-04-06</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>12312312</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -515,28 +521,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>박진우</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12312312</v>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,28 +555,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>김장환</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>12312312</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -579,58 +589,64 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>김장환</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12312312</v>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12312312</v>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12312312</v>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -641,27 +657,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12312312</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>김장환</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -673,17 +691,170 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>박진우</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>박진우</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>김장환</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PM</t>
         </is>
       </c>
     </row>
